--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_28.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1883506.971488524</v>
+        <v>1987686.605939594</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283195</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9954745.750256769</v>
+        <v>9954745.750256773</v>
       </c>
     </row>
     <row r="11">
@@ -656,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>175.6872326388762</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
@@ -713,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>257.9861230168262</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>197.0768572722413</v>
       </c>
       <c r="X4" t="n">
-        <v>156.2667339213791</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -914,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>125.9673299442102</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>359.3775597265566</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1063,16 +1065,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>41.34178945213468</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>98.24452779544811</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1133,13 +1135,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>146.5019282766013</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>67.95428330242083</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>31.24162857915239</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1300,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -1339,7 +1341,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -1348,16 +1350,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>92.542083128367</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1430,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>58.24570521548653</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>176.76214411214</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1619,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695535</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560505</v>
       </c>
     </row>
     <row r="15">
@@ -1701,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128548</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1768,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1777,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856558</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012174</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>177.1006680594853</v>
       </c>
       <c r="W16" t="n">
-        <v>243.2577348836421</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1844,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710044</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1856,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187877</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2008,7 +2010,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2020,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>118.2774686880317</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>185.4048731212257</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2090,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417135</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>126.3436347319667</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2254,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>68.17501931583863</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2333,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>61.97958965902472</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2491,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>71.58885292963997</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2561,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722637</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2603,19 +2605,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2716,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2731,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>153.0598676525416</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>99.6514066310757</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2798,16 +2800,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722621</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,25 +2952,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>54.84205284513764</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3016,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>112.5133406574304</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3044,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,19 +3079,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3184,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>62.1498983934891</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3205,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>172.3645574474252</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3247,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3266,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.272891771009</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3314,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576137</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3427,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428253</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3484,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>1.632620083627089</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3512,13 +3514,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576182</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3673,13 +3675,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,10 +3714,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>50.17139158339562</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>209.5844008505247</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3752,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187879</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3907,7 +3909,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3916,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.2658363185655</v>
+        <v>53.26309598425069</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3955,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>79.90816078629061</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3983,7 +3985,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4141,19 +4143,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>20.72279572932749</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,7 +4188,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>31.08121593769613</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4195,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1767.878520285689</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C2" t="n">
-        <v>1767.878520285689</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D2" t="n">
-        <v>1409.612821678938</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4328,7 +4330,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
@@ -4361,19 +4363,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136266</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V2" t="n">
-        <v>2884.252265792695</v>
+        <v>2701.192632958763</v>
       </c>
       <c r="W2" t="n">
-        <v>2531.48361052258</v>
+        <v>2701.192632958763</v>
       </c>
       <c r="X2" t="n">
-        <v>2158.017852261501</v>
+        <v>2327.726874697683</v>
       </c>
       <c r="Y2" t="n">
-        <v>1767.878520285689</v>
+        <v>2327.726874697683</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686077</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064752</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080131</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986303</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>624.6477645191717</v>
+        <v>657.6489837069648</v>
       </c>
       <c r="C4" t="n">
-        <v>624.6477645191717</v>
+        <v>657.6489837069648</v>
       </c>
       <c r="D4" t="n">
-        <v>624.6477645191717</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218342</v>
@@ -4510,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T4" t="n">
-        <v>1615.697475415547</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U4" t="n">
-        <v>1326.59460854119</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V4" t="n">
-        <v>1071.910120335303</v>
+        <v>1259.157560278958</v>
       </c>
       <c r="W4" t="n">
-        <v>782.4929502983425</v>
+        <v>1060.090027680735</v>
       </c>
       <c r="X4" t="n">
-        <v>624.6477645191717</v>
+        <v>1060.090027680735</v>
       </c>
       <c r="Y4" t="n">
-        <v>624.6477645191717</v>
+        <v>839.2974485372046</v>
       </c>
     </row>
     <row r="5">
@@ -4541,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D5" t="n">
         <v>1617.939223126803</v>
@@ -4562,13 +4564,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4577,40 +4579,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136265</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V5" t="n">
-        <v>3088.075425919891</v>
+        <v>2741.012457539435</v>
       </c>
       <c r="W5" t="n">
-        <v>2735.306770649777</v>
+        <v>2741.012457539435</v>
       </c>
       <c r="X5" t="n">
-        <v>2735.306770649777</v>
+        <v>2367.546699278355</v>
       </c>
       <c r="Y5" t="n">
-        <v>2345.167438673965</v>
+        <v>2004.539063190924</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4677,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>774.7644039315074</v>
+        <v>692.3528358643463</v>
       </c>
       <c r="C7" t="n">
-        <v>774.7644039315074</v>
+        <v>523.4166529364394</v>
       </c>
       <c r="D7" t="n">
-        <v>624.6477645191717</v>
+        <v>373.3000135241036</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>373.3000135241036</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>373.3000135241036</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959802</v>
+        <v>205.5971768988226</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
         <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1546.541309909768</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U7" t="n">
-        <v>1257.438443035412</v>
+        <v>1356.67533979849</v>
       </c>
       <c r="V7" t="n">
-        <v>1002.753954829525</v>
+        <v>1101.990851592603</v>
       </c>
       <c r="W7" t="n">
-        <v>1002.753954829525</v>
+        <v>1101.990851592603</v>
       </c>
       <c r="X7" t="n">
-        <v>774.7644039315074</v>
+        <v>874.001300694586</v>
       </c>
       <c r="Y7" t="n">
-        <v>774.7644039315074</v>
+        <v>874.001300694586</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2124.186667467494</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E8" t="n">
         <v>1232.150970528558</v>
@@ -4799,55 +4801,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>3050.987383788927</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792696</v>
+        <v>2719.924496445356</v>
       </c>
       <c r="W8" t="n">
-        <v>2884.252265792696</v>
+        <v>2367.155841175242</v>
       </c>
       <c r="X8" t="n">
-        <v>2510.786507531616</v>
+        <v>2367.155841175242</v>
       </c>
       <c r="Y8" t="n">
-        <v>2510.786507531616</v>
+        <v>1977.016509199431</v>
       </c>
     </row>
     <row r="9">
@@ -4875,19 +4877,19 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>627.8744564335971</v>
+        <v>943.7005868594143</v>
       </c>
       <c r="C10" t="n">
-        <v>627.8744564335971</v>
+        <v>774.7644039315074</v>
       </c>
       <c r="D10" t="n">
-        <v>477.7578170212613</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="E10" t="n">
-        <v>477.7578170212613</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
         <v>477.7578170212613</v>
@@ -4957,7 +4959,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4987,25 +4989,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621296</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="W10" t="n">
-        <v>880.2242361621296</v>
+        <v>1037.177438504229</v>
       </c>
       <c r="X10" t="n">
-        <v>880.2242361621296</v>
+        <v>943.7005868594143</v>
       </c>
       <c r="Y10" t="n">
-        <v>659.4316570185995</v>
+        <v>943.7005868594143</v>
       </c>
     </row>
     <row r="11">
@@ -5033,16 +5035,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,7 +5053,7 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068009</v>
@@ -5078,10 +5080,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,31 +5117,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452613</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.5020655703114</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>526.5658826424045</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>376.4492432300688</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>376.4492432300688</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5258,67 +5260,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492575</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474781</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.81249946657</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852885</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468466</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913855</v>
+        <v>1072.713683962605</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417938</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N15" t="n">
-        <v>1963.765362972545</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O15" t="n">
-        <v>2515.675093211832</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>557.5558870561822</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C16" t="n">
-        <v>388.6197041282753</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D16" t="n">
-        <v>388.6197041282753</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458822</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.741944003834</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1907.987318831763</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W16" t="n">
-        <v>1187.986481927969</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X16" t="n">
-        <v>959.9969310299521</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>739.2043518864219</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551872</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192589</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111693</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075785</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014776</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355934</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068007</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694704</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852252</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492575</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474781</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.81249946657</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852885</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615994</v>
       </c>
     </row>
     <row r="18">
@@ -5577,40 +5579,40 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>680.0291294438167</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438167</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>868.6673633290468</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C19" t="n">
-        <v>699.7311804011399</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D19" t="n">
-        <v>549.6145409888042</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038238</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797639</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910799</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570807</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279792</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.76484885335</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358025</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832652</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487557</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510498</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831766</v>
+        <v>1688.385853854696</v>
       </c>
       <c r="V19" t="n">
-        <v>1788.515128237794</v>
+        <v>1688.385853854696</v>
       </c>
       <c r="W19" t="n">
-        <v>1499.097958200834</v>
+        <v>1688.385853854696</v>
       </c>
       <c r="X19" t="n">
-        <v>1271.108407302816</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y19" t="n">
-        <v>1050.315828159286</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756267</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452603</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718124</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.528408326419</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876697</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597628</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D22" t="n">
-        <v>411.9631215597628</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>411.9631215597628</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>411.9631215597628</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>244.7670222746428</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235166</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258107</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602305</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396418</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359457</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614396</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179095</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5969,28 +5971,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362675</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,7 +6001,7 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468472</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>746.8882603249853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1344.266747951537</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
         <v>2319.799627685893</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1616.073881198505</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W25" t="n">
-        <v>1326.656711161544</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X25" t="n">
-        <v>1098.667160263527</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>1098.667160263527</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6242,34 +6244,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
@@ -6309,19 +6311,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M27" t="n">
-        <v>1072.713683962606</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.311647517213</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O27" t="n">
-        <v>2252.2213777565</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,10 +6360,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>806.8386896933887</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C28" t="n">
-        <v>637.9025067654818</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D28" t="n">
         <v>637.9025067654818</v>
@@ -6379,55 +6381,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2042.456618565808</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1753.381391910006</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="V28" t="n">
-        <v>1498.696903704119</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W28" t="n">
-        <v>1209.279733667159</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.279733667159</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y28" t="n">
-        <v>988.4871545236284</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="29">
@@ -6440,70 +6442,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N30" t="n">
-        <v>1964.511902868375</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>869.6905094135296</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C31" t="n">
-        <v>700.7543264856228</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D31" t="n">
-        <v>550.637687073287</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>869.6905094135296</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,61 +6688,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479719</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756267</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913855</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.167399417938</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N33" t="n">
-        <v>1963.765362972545</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O33" t="n">
-        <v>2515.675093211832</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>695.5020655703119</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C34" t="n">
-        <v>632.7243904253734</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D34" t="n">
-        <v>632.7243904253734</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
         <v>484.8112968429803</v>
@@ -6853,55 +6855,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2272.857469997003</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2272.857469997003</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X34" t="n">
-        <v>916.294644713842</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703119</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
         <v>1948.813509611463</v>
@@ -6926,61 +6928,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192377</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111693</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075785</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014776</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355934</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068007</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694704</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852252</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492575</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -6999,43 +7001,43 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G36" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756267</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756267</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>840.8417932021788</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1468.439756756786</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2020.349486996073</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2443.972636491141</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400721</v>
+        <v>868.6673633290468</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121652</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121652</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121652</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270452</v>
+        <v>235.5284942057737</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1499.097958200834</v>
       </c>
       <c r="X37" t="n">
-        <v>916.294644713842</v>
+        <v>1271.108407302816</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703119</v>
+        <v>1050.315828159286</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,61 +7162,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756267</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>738.7889117913855</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M39" t="n">
-        <v>738.7889117913855</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N39" t="n">
-        <v>1366.386875345992</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>1918.29660558528</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2341.919755080348</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G40" t="n">
         <v>317.6151975578602</v>
@@ -7327,55 +7329,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279799</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853357</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580257</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580257</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235161</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2264.108249235161</v>
+        <v>2213.430075918604</v>
       </c>
       <c r="U40" t="n">
-        <v>2264.108249235161</v>
+        <v>1924.354849262801</v>
       </c>
       <c r="V40" t="n">
-        <v>2009.423761029274</v>
+        <v>1669.670361056914</v>
       </c>
       <c r="W40" t="n">
-        <v>1720.006590992313</v>
+        <v>1380.253191019954</v>
       </c>
       <c r="X40" t="n">
-        <v>1492.017040094296</v>
+        <v>1152.263640121936</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>931.4710609784063</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756267</v>
+        <v>114.2598873597757</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468473</v>
+        <v>448.1846595309963</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M42" t="n">
-        <v>1072.713683962606</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>923.4916164683283</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>604.4387941280856</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>456.5257005456925</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>456.5257005456925</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>289.3296012605725</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>147.6177701027705</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832664</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855605</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199803</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1790.525374274257</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="44">
@@ -7628,13 +7630,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,28 +7645,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7722,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>208.9886740942263</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803938</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="L45" t="n">
-        <v>740.5562989961527</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M45" t="n">
-        <v>1337.934786622705</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N45" t="n">
-        <v>1965.532750177312</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O45" t="n">
-        <v>2517.442480416599</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>870.3164745246305</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C46" t="n">
-        <v>701.3802915967236</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D46" t="n">
-        <v>551.2636521843879</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E46" t="n">
-        <v>403.3505586019947</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>256.4606111040844</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235166</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258107</v>
+        <v>2232.71308162133</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602305</v>
+        <v>1943.637854965528</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396418</v>
+        <v>1688.953366759641</v>
       </c>
       <c r="W46" t="n">
-        <v>1500.747069396418</v>
+        <v>1399.536196722681</v>
       </c>
       <c r="X46" t="n">
-        <v>1272.7575184984</v>
+        <v>1171.546645824663</v>
       </c>
       <c r="Y46" t="n">
-        <v>1051.96493935487</v>
+        <v>950.7540666811333</v>
       </c>
     </row>
   </sheetData>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>-2.160049916710705e-12</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,13 +23424,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>87.17534280744471</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23467,13 +23469,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>40.64330621514821</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23656,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,16 +23706,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>75.03697526434266</v>
       </c>
       <c r="W16" t="n">
-        <v>43.26526345294894</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23896,7 +23898,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,19 +23943,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>133.8601746357963</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>40.30478226781148</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>40.90318636666112</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24142,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>72.11969353038523</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24361,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>105.2672314396031</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>180.548790394188</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24652,19 +24654,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>64.34558267474668</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>186.5330677581684</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,25 +24840,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.59190980143154</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>106.0713126946644</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>105.0969227051387</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>8.661728554219422</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25315,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194133</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25372,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>284.8903782529639</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25561,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25594,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>167.2340587438926</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>9.000252501570088</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25795,7 +25797,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>28.00274033431484</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>172.2294825375374</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26029,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>144.8013425629414</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>186.3242343895921</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26083,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>857263.0331147035</v>
+        <v>857263.0331147036</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>857263.0331147036</v>
+        <v>857263.0331147033</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>857263.0331147036</v>
+        <v>857263.0331147037</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>857263.0331147035</v>
+        <v>857263.0331147036</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>857263.0331147037</v>
+        <v>857263.0331147036</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>857263.0331147036</v>
+        <v>857263.0331147037</v>
       </c>
     </row>
     <row r="13">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>857263.0331147036</v>
+        <v>857263.0331147037</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049984</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049984</v>
+        <v>574729.2389049983</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="E2" t="n">
+        <v>565002.6197830043</v>
+      </c>
+      <c r="F2" t="n">
+        <v>565002.6197830042</v>
+      </c>
+      <c r="G2" t="n">
+        <v>565002.6197830043</v>
+      </c>
+      <c r="H2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="I2" t="n">
+        <v>565002.619783004</v>
+      </c>
+      <c r="J2" t="n">
+        <v>565002.6197830043</v>
+      </c>
+      <c r="K2" t="n">
+        <v>565002.6197830042</v>
+      </c>
+      <c r="L2" t="n">
+        <v>565002.6197830043</v>
+      </c>
+      <c r="M2" t="n">
         <v>565002.6197830044</v>
       </c>
-      <c r="F2" t="n">
-        <v>565002.6197830044</v>
-      </c>
-      <c r="G2" t="n">
-        <v>565002.6197830047</v>
-      </c>
-      <c r="H2" t="n">
-        <v>565002.6197830042</v>
-      </c>
-      <c r="I2" t="n">
-        <v>565002.6197830047</v>
-      </c>
-      <c r="J2" t="n">
-        <v>565002.6197830044</v>
-      </c>
-      <c r="K2" t="n">
-        <v>565002.6197830047</v>
-      </c>
-      <c r="L2" t="n">
-        <v>565002.6197830047</v>
-      </c>
-      <c r="M2" t="n">
-        <v>565002.6197830043</v>
-      </c>
       <c r="N2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="O2" t="n">
         <v>565002.6197830045</v>
       </c>
       <c r="P2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830045</v>
       </c>
     </row>
     <row r="3">
@@ -26369,25 +26371,25 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>5.303402303979965e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.22694927995326e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551167</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813251</v>
+        <v>89744.12305813248</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813252</v>
+        <v>89744.12305813254</v>
       </c>
       <c r="D4" t="n">
         <v>89744.12305813248</v>
@@ -26427,37 +26429,37 @@
         <v>10557.08828678121</v>
       </c>
       <c r="F4" t="n">
+        <v>10557.08828678135</v>
+      </c>
+      <c r="G4" t="n">
         <v>10557.08828678114</v>
       </c>
-      <c r="G4" t="n">
-        <v>10557.08828678116</v>
-      </c>
       <c r="H4" t="n">
-        <v>10557.08828678111</v>
+        <v>10557.08828678126</v>
       </c>
       <c r="I4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="J4" t="n">
-        <v>10557.0882867811</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="K4" t="n">
-        <v>10557.0882867812</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="L4" t="n">
-        <v>10557.08828678119</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="M4" t="n">
-        <v>10557.08828678112</v>
+        <v>10557.08828678131</v>
       </c>
       <c r="N4" t="n">
-        <v>10557.0882867811</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="O4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="P4" t="n">
-        <v>10557.08828678114</v>
+        <v>10557.08828678121</v>
       </c>
     </row>
     <row r="5">
@@ -26485,7 +26487,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="I5" t="n">
         <v>101122.5298239071</v>
@@ -26497,16 +26499,16 @@
         <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-951693.5704421197</v>
+        <v>-951693.57044212</v>
       </c>
       <c r="C6" t="n">
-        <v>377051.1752854726</v>
+        <v>377051.1752854727</v>
       </c>
       <c r="D6" t="n">
-        <v>377051.1752854729</v>
+        <v>377051.1752854725</v>
       </c>
       <c r="E6" t="n">
         <v>127910.5398649608</v>
       </c>
       <c r="F6" t="n">
+        <v>453323.0016723165</v>
+      </c>
+      <c r="G6" t="n">
+        <v>453323.0016723155</v>
+      </c>
+      <c r="H6" t="n">
         <v>453323.0016723162</v>
       </c>
-      <c r="G6" t="n">
-        <v>453323.0016723165</v>
-      </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
+        <v>453323.0016723157</v>
+      </c>
+      <c r="J6" t="n">
+        <v>235791.7992750385</v>
+      </c>
+      <c r="K6" t="n">
+        <v>453323.0016723158</v>
+      </c>
+      <c r="L6" t="n">
         <v>453323.0016723159</v>
       </c>
-      <c r="I6" t="n">
-        <v>453323.0016723164</v>
-      </c>
-      <c r="J6" t="n">
-        <v>235791.7992750389</v>
-      </c>
-      <c r="K6" t="n">
-        <v>453323.0016723164</v>
-      </c>
-      <c r="L6" t="n">
-        <v>453323.0016723164</v>
-      </c>
       <c r="M6" t="n">
-        <v>368267.9737368042</v>
+        <v>368267.9737368043</v>
       </c>
       <c r="N6" t="n">
-        <v>453323.0016723161</v>
+        <v>453323.0016723163</v>
       </c>
       <c r="O6" t="n">
         <v>453323.0016723162</v>
       </c>
       <c r="P6" t="n">
-        <v>453323.0016723161</v>
+        <v>453323.0016723162</v>
       </c>
     </row>
   </sheetData>
@@ -26747,7 +26749,7 @@
         <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022926</v>
-      </c>
-      <c r="C4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26802,31 +26804,31 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26963,16 +26965,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27027,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27376,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>206.2431374333856</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27433,19 +27435,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>69.76613545330872</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>89.44614106434966</v>
       </c>
       <c r="X4" t="n">
-        <v>69.44292146765804</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>201.7849285259247</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>26.86037892949702</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,13 +27785,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>103.4132254621861</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27825,7 +27827,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>121.3044214807211</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27853,13 +27855,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>218.7709634944063</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>183.0408886564811</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>148.5903516027849</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,7 +28022,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28059,7 +28061,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28068,16 +28070,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>133.1675722606702</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28393,7 +28395,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>3.126388037344441e-12</v>
       </c>
     </row>
     <row r="15">
@@ -28564,7 +28566,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>3.183231456205249e-12</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28746,7 +28748,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>-9.183033840359967e-12</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -28798,7 +28800,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -30037,7 +30039,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>2.359001882723533e-12</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -31276,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>248.7449369209194</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348431</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.754615566328</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817572</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162557</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.646344017567</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159421</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460023</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236504</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669219</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078743</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420753</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422583</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>538.5853835133137</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071781</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>171.7382405950807</v>
+        <v>561.8765786214695</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742436</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275953</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189902</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.93245966121569</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869271</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.405663379626</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355176</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588151</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392043</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106786</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920055</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515926</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670477</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532764</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>242.232209776813</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>615.038144437878</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>248.7449369209182</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862124</v>
+        <v>479.6444630806909</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>309.7666854143571</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N24" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
         <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>233.3139244897921</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>437.853104691376</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>248.0319961154043</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>428.7353800421384</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473074</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437245</v>
+        <v>235.5705495535876</v>
       </c>
       <c r="P33" t="n">
-        <v>134.7284881171886</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067233</v>
+        <v>212.015579806721</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>213.1625787491737</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473074</v>
+        <v>513.0745614164389</v>
       </c>
       <c r="M39" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>353.2560498238267</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>147.4873481937412</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>368.6279838366843</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>243.172991359853</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473074</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>169.9530009943058</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>110.1905571410452</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317142</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396417</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367767</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193511</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243155</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492471</v>
+        <v>371.5675334924724</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902402</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754086</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678993</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>396.4513495912954</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238448</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>37.76383318075048</v>
+        <v>427.9021712071393</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789202</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295327</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899072</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060452</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998982</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396398</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>103.6778299969388</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>472.9041105158597</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096244</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>110.1905571410441</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.412613764194</v>
+        <v>337.5104291586726</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,22 +36442,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>171.2123056344829</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,22 +36679,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>94.75954470991793</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>303.8786972770457</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36913,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>297.3936679588052</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674332</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992801</v>
+        <v>92.97430510914316</v>
       </c>
       <c r="P33" t="n">
-        <v>0.7540807028583389</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236315111</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>73.18080466315214</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674332</v>
+        <v>374.5201816365647</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>213.2742757378053</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.626132989903</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754089</v>
+        <v>20.64972152707456</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>237.286271753351</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.567533492471</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754089</v>
+        <v>116.3353646931863</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674332</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>35.97859357997559</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1987686.605939594</v>
+        <v>1983673.995925602</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283195</v>
+        <v>416855.1052283181</v>
       </c>
     </row>
     <row r="9">
@@ -673,7 +673,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
@@ -715,16 +715,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>257.9861230168262</v>
+        <v>129.471426936783</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -822,22 +822,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>18.12224013931784</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>197.0768572722413</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -898,10 +898,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>166.9920602376557</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>359.3775597265566</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1062,7 +1062,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1071,10 +1071,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>41.34178945213468</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>158.4482401433277</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,13 +1135,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1153,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>67.95428330242083</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>134.0513867710698</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>98.1264028858632</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>92.542083128367</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>176.76214411214</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>281.6778446725273</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722647</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695535</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560505</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128548</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1770,13 +1770,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856558</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012174</v>
+        <v>9.146142788180832</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>177.1006680594853</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710044</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>136.1078891637045</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2061,13 +2061,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>185.4048731212257</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417133</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>126.3436347319667</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673027</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,22 +2478,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>61.97958965902472</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>108.295034370327</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>39.19314274110882</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>99.6514066310757</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>54.84205284513764</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>172.3645574474252</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>172.026033500079</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576137</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3486,13 +3486,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>1.632620083627089</v>
+        <v>221.1916634252473</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444115</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>9.146142788180381</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>50.17139158339562</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428257</v>
       </c>
       <c r="I43" t="n">
-        <v>53.26309598425069</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4143,19 +4143,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>31.08121593769613</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>179.2499669408071</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1941.127034633561</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>1572.164517693149</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1213.898819086399</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>828.1105664881545</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4327,19 +4327,19 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4354,28 +4354,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410102</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V2" t="n">
-        <v>2701.192632958763</v>
+        <v>3084.535934008201</v>
       </c>
       <c r="W2" t="n">
-        <v>2701.192632958763</v>
+        <v>2731.767278738087</v>
       </c>
       <c r="X2" t="n">
-        <v>2327.726874697683</v>
+        <v>2731.767278738087</v>
       </c>
       <c r="Y2" t="n">
-        <v>2327.726874697683</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="3">
@@ -4385,70 +4385,70 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>657.6489837069648</v>
+        <v>163.837793613838</v>
       </c>
       <c r="C4" t="n">
-        <v>657.6489837069648</v>
+        <v>163.837793613838</v>
       </c>
       <c r="D4" t="n">
-        <v>507.5323442946291</v>
+        <v>163.837793613838</v>
       </c>
       <c r="E4" t="n">
-        <v>359.619250712236</v>
+        <v>163.837793613838</v>
       </c>
       <c r="F4" t="n">
-        <v>212.7293032143256</v>
+        <v>163.837793613838</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4512,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1513.842048484845</v>
+        <v>1627.472913602829</v>
       </c>
       <c r="U4" t="n">
-        <v>1513.842048484845</v>
+        <v>1338.370046728473</v>
       </c>
       <c r="V4" t="n">
-        <v>1259.157560278958</v>
+        <v>1083.685558522586</v>
       </c>
       <c r="W4" t="n">
-        <v>1060.090027680735</v>
+        <v>794.2683884856252</v>
       </c>
       <c r="X4" t="n">
-        <v>1060.090027680735</v>
+        <v>566.2788375876079</v>
       </c>
       <c r="Y4" t="n">
-        <v>839.2974485372046</v>
+        <v>345.4862584440777</v>
       </c>
     </row>
     <row r="5">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1617.939223126803</v>
+        <v>2144.883770458458</v>
       </c>
       <c r="C5" t="n">
-        <v>1617.939223126803</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
         <v>1617.939223126803</v>
@@ -4564,13 +4564,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4579,40 +4579,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>3072.075344883006</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V5" t="n">
-        <v>2741.012457539435</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W5" t="n">
-        <v>2741.012457539435</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X5" t="n">
-        <v>2367.546699278355</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="Y5" t="n">
-        <v>2004.539063190924</v>
+        <v>2531.48361052258</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>692.3528358643463</v>
+        <v>847.3980557622424</v>
       </c>
       <c r="C7" t="n">
-        <v>523.4166529364394</v>
+        <v>678.4618728343355</v>
       </c>
       <c r="D7" t="n">
-        <v>373.3000135241036</v>
+        <v>528.3452334219998</v>
       </c>
       <c r="E7" t="n">
-        <v>373.3000135241036</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F7" t="n">
-        <v>373.3000135241036</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G7" t="n">
-        <v>205.5971768988226</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1356.67533979849</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1101.990851592603</v>
+        <v>1767.24582067099</v>
       </c>
       <c r="W7" t="n">
-        <v>1101.990851592603</v>
+        <v>1477.828650634029</v>
       </c>
       <c r="X7" t="n">
-        <v>874.001300694586</v>
+        <v>1249.839099736012</v>
       </c>
       <c r="Y7" t="n">
-        <v>874.001300694586</v>
+        <v>1029.046520592482</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1590.416669135309</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C8" t="n">
-        <v>1590.416669135309</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3050.987383788927</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2719.924496445356</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W8" t="n">
-        <v>2367.155841175242</v>
+        <v>3079.909711953368</v>
       </c>
       <c r="X8" t="n">
-        <v>2367.155841175242</v>
+        <v>3079.909711953368</v>
       </c>
       <c r="Y8" t="n">
-        <v>1977.016509199431</v>
+        <v>2689.770379977556</v>
       </c>
     </row>
     <row r="9">
@@ -4877,19 +4877,19 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>943.7005868594143</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="C10" t="n">
-        <v>774.7644039315074</v>
+        <v>364.5418494269123</v>
       </c>
       <c r="D10" t="n">
-        <v>624.6477645191717</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1326.59460854119</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V10" t="n">
-        <v>1326.59460854119</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W10" t="n">
-        <v>1037.177438504229</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X10" t="n">
-        <v>943.7005868594143</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y10" t="n">
-        <v>943.7005868594143</v>
+        <v>645.3078929297411</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,61 +5029,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075814</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>245.230692780394</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516147</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N12" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348534</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T13" t="n">
-        <v>2018.514925172274</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U13" t="n">
-        <v>2018.514925172274</v>
+        <v>1759.983708831312</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551878</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611467</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004716</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K14" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075815</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852259</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398597</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492582</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474781</v>
+        <v>4405.252601474787</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466577</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123</v>
+        <v>3820.749612123006</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852885</v>
+        <v>3467.980956852892</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591812</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866616</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797182</v>
+        <v>95.58405025273915</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756264</v>
+        <v>245.230692780394</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468466</v>
+        <v>579.1554649516147</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962605</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M15" t="n">
-        <v>1465.200520057987</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N15" t="n">
-        <v>2092.798483612594</v>
+        <v>2299.457522348534</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K16" t="n">
-        <v>435.741944003834</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L16" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832661</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487565</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487565</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831763</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1729.097755135313</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551872</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,64 +5503,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192589</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111693</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075785</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014776</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355934</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068007</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694704</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852252</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474781</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852885</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615994</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5579,43 +5579,43 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797182</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756265</v>
+        <v>245.230692780394</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516147</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M18" t="n">
-        <v>1540.888753373307</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N18" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348534</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263526</v>
+        <v>695.5020655703123</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356194</v>
+        <v>695.5020655703123</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>545.3854261579766</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038238</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797639</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910799</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570807</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279792</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885335</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358025</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832652</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487557</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510498</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854696</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1688.385853854696</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1688.385853854696</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703123</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L21" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M21" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N21" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>762.5477693179085</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>634.9279362553159</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5968,70 +5968,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>768.5380889459582</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>950.1865537761979</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6214,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,37 +6238,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>671.2000270096659</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>956.9553291057244</v>
+        <v>988.1395539230176</v>
       </c>
       <c r="C28" t="n">
-        <v>788.0191461778176</v>
+        <v>819.2033709951107</v>
       </c>
       <c r="D28" t="n">
-        <v>637.9025067654818</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830887</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U28" t="n">
-        <v>1876.803094014472</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V28" t="n">
-        <v>1876.803094014472</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="W28" t="n">
-        <v>1587.385923977512</v>
+        <v>1618.570148794805</v>
       </c>
       <c r="X28" t="n">
-        <v>1359.396373079494</v>
+        <v>1390.580597896787</v>
       </c>
       <c r="Y28" t="n">
-        <v>1138.603793935964</v>
+        <v>1169.788018753257</v>
       </c>
     </row>
     <row r="29">
@@ -6445,40 +6445,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,25 +6539,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>352.5519571452614</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>695.5020655703109</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>695.5020655703109</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>545.3854261579752</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6691,34 +6691,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852255</v>
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1804.131916132773</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,67 +6834,67 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2272.857469997003</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T34" t="n">
-        <v>2272.857469997003</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="U34" t="n">
-        <v>1983.7822433412</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V34" t="n">
-        <v>1729.097755135313</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W34" t="n">
         <v>1729.097755135313</v>
@@ -6925,46 +6925,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192377</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111693</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075785</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014776</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355934</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068007</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694704</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852252</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7004,22 +7004,22 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273898</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>868.6673633290468</v>
+        <v>800.6374272687974</v>
       </c>
       <c r="C37" t="n">
-        <v>699.7311804011399</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="D37" t="n">
-        <v>549.6145409888042</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888042</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057737</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797182</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1499.097958200834</v>
+        <v>1210.275442997055</v>
       </c>
       <c r="X37" t="n">
-        <v>1271.108407302816</v>
+        <v>982.2858920990371</v>
       </c>
       <c r="Y37" t="n">
-        <v>1050.315828159286</v>
+        <v>982.2858920990371</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168588</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362663</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="39">
@@ -7241,34 +7241,34 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L39" t="n">
-        <v>949.9304447718133</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>931.4710609784063</v>
+        <v>571.6607764188007</v>
       </c>
       <c r="C40" t="n">
-        <v>762.5348780504994</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>612.4182386381636</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057737</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>2213.430075918604</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1924.354849262801</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V40" t="n">
-        <v>1669.670361056914</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1380.253191019954</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1152.263640121936</v>
+        <v>974.1018203925705</v>
       </c>
       <c r="Y40" t="n">
-        <v>931.4710609784063</v>
+        <v>753.3092412490404</v>
       </c>
     </row>
     <row r="41">
@@ -7399,7 +7399,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7408,16 +7408,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>114.2598873597757</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>448.1846595309963</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L42" t="n">
-        <v>943.510265746755</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1540.888753373307</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>923.4916164683283</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C43" t="n">
-        <v>754.5554335404214</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D43" t="n">
-        <v>604.4387941280856</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E43" t="n">
-        <v>456.5257005456925</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F43" t="n">
-        <v>456.5257005456925</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G43" t="n">
-        <v>289.3296012605725</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H43" t="n">
-        <v>147.6177701027705</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1144.284195611858</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y43" t="n">
-        <v>923.4916164683283</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192383</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J45" t="n">
-        <v>208.9886740942263</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>542.9134462654469</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L45" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>950.7540666811333</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>781.8178837532264</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>631.7012443408906</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2232.71308162133</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1943.637854965528</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1688.953366759641</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1399.536196722681</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1171.546645824663</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>950.7540666811333</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>-2.160049916710705e-12</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -10369,7 +10369,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>-5.518605861450607e-13</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>40.64330621514821</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>4.506629716716873</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23658,13 +23658,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>57.2291039219408</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>75.03697526434266</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>10.32607348286467</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23949,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>40.30478226781148</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>40.90318636666112</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>57.22910392194143</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>105.2672314396031</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.2291039219418</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>109.4223302771035</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24654,10 +24654,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>186.5330677581684</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>91.59190980143154</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25122,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>8.661728554219422</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>45.37941682720927</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>284.8903782529639</v>
+        <v>65.3313349113437</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>57.22910392194126</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>167.2340587438926</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194129</v>
       </c>
       <c r="I43" t="n">
-        <v>28.00274033431484</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>186.3242343895921</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>46.45968844823008</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>857263.0331147033</v>
+        <v>857263.0331147036</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>857263.0331147037</v>
+        <v>857263.0331147036</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>857263.0331147036</v>
+        <v>857263.0331147035</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>857263.0331147036</v>
+        <v>857263.0331147037</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>857263.0331147036</v>
+        <v>857263.0331147035</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>857263.0331147036</v>
+        <v>857263.0331147035</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>857263.0331147037</v>
+        <v>857263.0331147035</v>
       </c>
     </row>
   </sheetData>
@@ -26316,7 +26316,7 @@
         <v>574729.2389049984</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049983</v>
+        <v>574729.2389049984</v>
       </c>
       <c r="D2" t="n">
         <v>574729.2389049985</v>
@@ -26325,31 +26325,31 @@
         <v>565002.6197830043</v>
       </c>
       <c r="F2" t="n">
-        <v>565002.6197830042</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="G2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="H2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="I2" t="n">
         <v>565002.6197830046</v>
       </c>
-      <c r="I2" t="n">
-        <v>565002.619783004</v>
-      </c>
       <c r="J2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="K2" t="n">
-        <v>565002.6197830042</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="L2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="M2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="N2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="O2" t="n">
         <v>565002.6197830045</v>
@@ -26371,25 +26371,25 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073558</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.30296939460095e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>5.303402303979965e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.22694927995326e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551167</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813248</v>
+        <v>89744.12305813255</v>
       </c>
       <c r="C4" t="n">
         <v>89744.12305813254</v>
@@ -26429,13 +26429,13 @@
         <v>10557.08828678121</v>
       </c>
       <c r="F4" t="n">
-        <v>10557.08828678135</v>
+        <v>10557.08828678107</v>
       </c>
       <c r="G4" t="n">
-        <v>10557.08828678114</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="H4" t="n">
-        <v>10557.08828678126</v>
+        <v>10557.08828678113</v>
       </c>
       <c r="I4" t="n">
         <v>10557.08828678121</v>
@@ -26447,13 +26447,13 @@
         <v>10557.08828678121</v>
       </c>
       <c r="L4" t="n">
+        <v>10557.08828678117</v>
+      </c>
+      <c r="M4" t="n">
         <v>10557.08828678121</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>10557.08828678131</v>
-      </c>
-      <c r="N4" t="n">
-        <v>10557.08828678121</v>
       </c>
       <c r="O4" t="n">
         <v>10557.08828678121</v>
@@ -26478,16 +26478,16 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="I5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-951693.57044212</v>
+        <v>-951693.5704421201</v>
       </c>
       <c r="C6" t="n">
-        <v>377051.1752854727</v>
+        <v>377051.1752854726</v>
       </c>
       <c r="D6" t="n">
-        <v>377051.1752854725</v>
+        <v>377051.1752854728</v>
       </c>
       <c r="E6" t="n">
-        <v>127910.5398649608</v>
+        <v>127563.1606106032</v>
       </c>
       <c r="F6" t="n">
-        <v>453323.0016723165</v>
+        <v>452975.6224179592</v>
       </c>
       <c r="G6" t="n">
-        <v>453323.0016723155</v>
+        <v>452975.6224179594</v>
       </c>
       <c r="H6" t="n">
-        <v>453323.0016723162</v>
+        <v>452975.6224179594</v>
       </c>
       <c r="I6" t="n">
-        <v>453323.0016723157</v>
+        <v>452975.6224179593</v>
       </c>
       <c r="J6" t="n">
-        <v>235791.7992750385</v>
+        <v>235444.420020682</v>
       </c>
       <c r="K6" t="n">
-        <v>453323.0016723158</v>
+        <v>452975.6224179592</v>
       </c>
       <c r="L6" t="n">
-        <v>453323.0016723159</v>
+        <v>452975.6224179593</v>
       </c>
       <c r="M6" t="n">
-        <v>368267.9737368043</v>
+        <v>367920.5944824474</v>
       </c>
       <c r="N6" t="n">
-        <v>453323.0016723163</v>
+        <v>452975.6224179592</v>
       </c>
       <c r="O6" t="n">
-        <v>453323.0016723162</v>
+        <v>452975.6224179592</v>
       </c>
       <c r="P6" t="n">
-        <v>453323.0016723162</v>
+        <v>452975.6224179592</v>
       </c>
     </row>
   </sheetData>
@@ -26749,7 +26749,7 @@
         <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26789,31 +26789,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26965,16 +26965,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483761</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,22 +27020,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,16 +27266,16 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27393,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27435,16 +27435,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>69.76613545330872</v>
+        <v>198.2808315333519</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27542,22 +27542,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>201.4267091368513</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>89.44614106434966</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27618,10 +27618,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>198.2808315333518</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>26.86037892949702</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27782,7 +27782,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>103.4132254621861</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>93.68940318050031</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,13 +27855,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>183.0408886564811</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>215.1895819463432</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>69.12041821276463</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>133.1675722606702</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28335,7 +28335,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-2.541380246273341e-12</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28395,7 +28395,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.126388037344441e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28566,7 +28566,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>3.183231456205249e-12</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28748,7 +28748,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>-9.183033840359967e-12</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -28800,7 +28800,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -30039,7 +30039,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>2.359001882723533e-12</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30240,7 +30240,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N12" t="n">
-        <v>320.9147064709964</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643557995</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348431</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.754615566328</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817572</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162557</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M14" t="n">
-        <v>965.646344017567</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159421</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460023</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236504</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669219</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078743</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521099</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420753</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422583</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L15" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M15" t="n">
-        <v>538.5853835133137</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071781</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643557995</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214695</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742436</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275953</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189902</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121569</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869271</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.405663379626</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355176</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588151</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392043</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106786</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920055</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515926</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670477</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532764</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M18" t="n">
-        <v>615.038144437878</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643557995</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M21" t="n">
-        <v>479.6444630806909</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
         <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>233.3139244897921</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,34 +33253,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>248.0319961154043</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>235.5705495535876</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043693</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,22 +33976,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L39" t="n">
-        <v>513.0745614164389</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175656</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>147.4873481937412</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.015579806721</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>243.172991359853</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P46" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N12" t="n">
-        <v>189.5729943876631</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>256.1654199113551</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317142</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396417</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367767</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193511</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243155</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924724</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902402</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754086</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678993</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674328</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M15" t="n">
-        <v>396.4513495912954</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238448</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>256.1654199113551</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071393</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789202</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295327</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899072</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060452</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066248</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396398</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M18" t="n">
-        <v>472.9041105158597</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113551</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,25 +36041,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096244</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q19" t="n">
         <v>120.4022572998984</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M21" t="n">
-        <v>337.5104291586726</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,22 +36442,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,22 +36679,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>94.75954470991793</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,28 +36907,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>110.1905571410453</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,22 +37153,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>92.97430510914316</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236315111</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902372</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,28 +37618,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L39" t="n">
-        <v>374.5201816365647</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902929</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J42" t="n">
-        <v>20.64972152707456</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236315111</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J45" t="n">
-        <v>116.3353646931863</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1983673.995925602</v>
+        <v>1985434.526228387</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283181</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>129.471426936783</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>227.7172236952946</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744755</v>
       </c>
       <c r="T4" t="n">
-        <v>18.12224013931784</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>166.9920602376557</v>
+        <v>166.9920602376562</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1062,16 +1062,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>77.31354443380414</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>158.4482401433277</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>134.0513867710698</v>
+        <v>273.5080478807773</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1293,7 +1293,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>98.1264028858632</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1302,7 +1302,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>55.30088041042189</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,13 +1584,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>281.6778446725273</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722647</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>9.146142788180832</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>136.1078891637045</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012163</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>160.6789846282041</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417133</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>80.6784213964369</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,13 +2295,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>228.9553704673027</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>108.295034370327</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>20.92847288552921</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="27">
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>39.19314274110882</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>166.1438437522582</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2794,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>111.3213230702134</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3195,7 +3195,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>36.43062059490504</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>172.026033500079</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3486,13 +3486,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>221.1916634252473</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670954</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3517,10 +3517,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444115</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788180381</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3802,7 +3802,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428257</v>
+        <v>83.06560892428256</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>191.6604102493278</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>179.2499669408071</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4327,10 +4327,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810555</v>
@@ -4348,31 +4348,31 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136265</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V2" t="n">
-        <v>3084.535934008201</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W2" t="n">
-        <v>2731.767278738087</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="X2" t="n">
-        <v>2731.767278738087</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="Y2" t="n">
         <v>2731.767278738087</v>
@@ -4400,22 +4400,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4427,10 +4427,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C4" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D4" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E4" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F4" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4509,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1751.913851851648</v>
       </c>
       <c r="T4" t="n">
-        <v>1627.472913602829</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U4" t="n">
-        <v>1338.370046728473</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V4" t="n">
-        <v>1083.685558522586</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W4" t="n">
-        <v>794.2683884856252</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X4" t="n">
-        <v>566.2788375876079</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y4" t="n">
-        <v>345.4862584440777</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="5">
@@ -4564,22 +4564,22 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4591,19 +4591,19 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792694</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W5" t="n">
         <v>2531.48361052258</v>
@@ -4637,22 +4637,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4664,10 +4664,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>847.3980557622424</v>
+        <v>463.6594280995009</v>
       </c>
       <c r="C7" t="n">
-        <v>678.4618728343355</v>
+        <v>294.723245171594</v>
       </c>
       <c r="D7" t="n">
-        <v>528.3452334219998</v>
+        <v>144.6066057592583</v>
       </c>
       <c r="E7" t="n">
-        <v>380.4321398396066</v>
+        <v>144.6066057592583</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V7" t="n">
-        <v>1767.24582067099</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W7" t="n">
-        <v>1477.828650634029</v>
+        <v>1094.090022971288</v>
       </c>
       <c r="X7" t="n">
-        <v>1249.839099736012</v>
+        <v>866.1004720732708</v>
       </c>
       <c r="Y7" t="n">
-        <v>1029.046520592482</v>
+        <v>645.3078929297407</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2303.170539913434</v>
+        <v>1899.13013587303</v>
       </c>
       <c r="C8" t="n">
-        <v>1934.208022973022</v>
+        <v>1530.167618932618</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.942324366272</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>786.1136677276231</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>375.1277629380156</v>
       </c>
       <c r="G8" t="n">
         <v>364.0957168234162</v>
@@ -4804,10 +4804,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4831,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W8" t="n">
-        <v>3079.909711953368</v>
+        <v>3049.335066174043</v>
       </c>
       <c r="X8" t="n">
-        <v>3079.909711953368</v>
+        <v>2675.869307912963</v>
       </c>
       <c r="Y8" t="n">
-        <v>2689.770379977556</v>
+        <v>2285.729975937151</v>
       </c>
     </row>
     <row r="9">
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>463.6594280995014</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>364.5418494269123</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>214.4252100145765</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218343</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
         <v>66.51211643218343</v>
@@ -4989,25 +4989,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214136</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V10" t="n">
-        <v>1383.507193008249</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W10" t="n">
-        <v>1094.090022971289</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X10" t="n">
-        <v>866.1004720732712</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>645.3078929297411</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,52 +5029,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075814</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273912</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>245.230692780394</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516147</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793926</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348534</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.8686257536381</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>378.6527890600109</v>
       </c>
       <c r="F13" t="n">
-        <v>261.012762333092</v>
+        <v>231.7628415621006</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797191</v>
+        <v>231.7628415621006</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1759.983708831312</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1505.299220625425</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551878</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611467</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004716</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075815</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852259</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398597</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492582</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474787</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466577</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123006</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852892</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591812</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866616</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273915</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.230692780394</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516147</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793926</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348534</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5430,43 +5430,43 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
         <v>1746.193029533436</v>
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,22 +5503,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5530,25 +5530,25 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273912</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>245.230692780394</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516147</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167374</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793926</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348534</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>695.5020655703123</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C19" t="n">
-        <v>695.5020655703123</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>545.3854261579766</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>261.012762333092</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
         <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487569</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.46108051051</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.28419561186</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138424</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703123</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.5840502527391</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516146</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793926</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348533</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>803.2707707770323</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>634.3345878491255</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.2179484367897</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.2179484367897</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.2179484367897</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.0218491516696</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797191</v>
+        <v>175.3100179938677</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5919,7 +5919,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570818</v>
@@ -5928,13 +5928,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
         <v>2197.062545487568</v>
@@ -5943,19 +5943,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>984.9192356072721</v>
       </c>
     </row>
     <row r="23">
@@ -5968,61 +5968,61 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803938</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>559.7594328861248</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6171,28 +6171,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2425.823211978716</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2242.968377633621</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2023.366912656562</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1734.29168600076</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1479.607197794873</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1190.190027757912</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>962.2004768598947</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>741.4078977163646</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6223,7 +6223,7 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
@@ -6232,10 +6232,10 @@
         <v>852.852361107581</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>988.1395539230176</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C28" t="n">
-        <v>819.2033709951107</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797189</v>
@@ -6408,28 +6408,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487568</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1907.987318831765</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1907.987318831765</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1618.570148794805</v>
+        <v>1332.925005000197</v>
       </c>
       <c r="X28" t="n">
-        <v>1390.580597896787</v>
+        <v>1104.935454102179</v>
       </c>
       <c r="Y28" t="n">
-        <v>1169.788018753257</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="29">
@@ -6451,61 +6451,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803938</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6645,28 +6645,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="32">
@@ -6694,31 +6694,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852255</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263526</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356194</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232836</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6888,22 +6888,22 @@
         <v>2446.963083580261</v>
       </c>
       <c r="T34" t="n">
-        <v>2273.199413378161</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U34" t="n">
-        <v>2273.199413378161</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V34" t="n">
-        <v>2018.514925172274</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W34" t="n">
-        <v>1729.097755135313</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X34" t="n">
-        <v>1501.108204237296</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="35">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>800.6374272687974</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7134,13 +7134,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1210.275442997055</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>982.2858920990371</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>982.2858920990371</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168588</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362663</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7238,25 +7238,25 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188007</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057737</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
         <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
         <v>1665.560112570818</v>
@@ -7350,34 +7350,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925705</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490404</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7399,61 +7399,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803938</v>
@@ -7563,10 +7563,10 @@
         <v>177.7213185270452</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782958</v>
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192383</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>560.7825789706076</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C46" t="n">
-        <v>391.8463960427007</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D46" t="n">
-        <v>241.729756630365</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E46" t="n">
-        <v>93.81666304797187</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2253.366709591041</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1964.291482935239</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1709.606994729352</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1420.189824692392</v>
       </c>
       <c r="X46" t="n">
-        <v>963.2236229443774</v>
+        <v>1192.200273794374</v>
       </c>
       <c r="Y46" t="n">
-        <v>742.4310438008473</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>-3.228538857131513e-13</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -10369,7 +10369,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>-5.518605861450607e-13</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>84.99383243580201</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012163</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,13 +23472,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>4.506629716716873</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>57.2291039219408</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>10.32607348286467</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>125.5054897610401</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>0.587414922128616</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,13 +24183,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>57.22910392194143</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>57.2291039219418</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856552</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>45.44677382459246</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>109.4223302771035</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>120.3791545843328</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>106.0841272570749</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25083,7 +25083,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>110.0033420516641</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,10 +25128,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>45.37941682720927</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>65.3313349113437</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>57.2291039219418</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I40" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.22910392194126</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194129</v>
+        <v>57.2291039219413</v>
       </c>
       <c r="I43" t="n">
         <v>81.2658363185655</v>
@@ -26034,7 +26034,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -26043,7 +26043,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>25.74504007796051</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>46.45968844823008</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>857263.0331147036</v>
+        <v>857263.0331147035</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>857263.0331147036</v>
+        <v>857263.0331147035</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>857263.0331147036</v>
+        <v>857263.0331147037</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>857263.0331147037</v>
+        <v>857263.0331147036</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>857263.0331147035</v>
+        <v>857263.0331147037</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>857263.0331147037</v>
+        <v>857263.0331147036</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>857263.0331147036</v>
+        <v>857263.0331147035</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>857263.0331147035</v>
+        <v>857263.0331147036</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>574729.2389049983</v>
+      </c>
+      <c r="C2" t="n">
+        <v>574729.2389049983</v>
+      </c>
+      <c r="D2" t="n">
         <v>574729.2389049984</v>
       </c>
-      <c r="C2" t="n">
-        <v>574729.2389049984</v>
-      </c>
-      <c r="D2" t="n">
-        <v>574729.2389049985</v>
-      </c>
       <c r="E2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="F2" t="n">
         <v>565002.6197830045</v>
       </c>
       <c r="G2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="H2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="I2" t="n">
         <v>565002.6197830045</v>
-      </c>
-      <c r="I2" t="n">
-        <v>565002.6197830046</v>
       </c>
       <c r="J2" t="n">
         <v>565002.6197830046</v>
       </c>
       <c r="K2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="L2" t="n">
         <v>565002.6197830045</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="N2" t="n">
         <v>565002.6197830046</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="P2" t="n">
         <v>565002.6197830046</v>
-      </c>
-      <c r="N2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="O2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="P2" t="n">
-        <v>565002.6197830045</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073558</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
-        <v>1.30296939460095e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>89744.12305813254</v>
+      </c>
+      <c r="C4" t="n">
         <v>89744.12305813255</v>
       </c>
-      <c r="C4" t="n">
-        <v>89744.12305813254</v>
-      </c>
       <c r="D4" t="n">
-        <v>89744.12305813248</v>
+        <v>89744.12305813245</v>
       </c>
       <c r="E4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="F4" t="n">
-        <v>10557.08828678107</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="G4" t="n">
+        <v>10557.08828678116</v>
+      </c>
+      <c r="H4" t="n">
         <v>10557.08828678121</v>
-      </c>
-      <c r="H4" t="n">
-        <v>10557.08828678113</v>
       </c>
       <c r="I4" t="n">
         <v>10557.08828678121</v>
@@ -26447,13 +26447,13 @@
         <v>10557.08828678121</v>
       </c>
       <c r="L4" t="n">
-        <v>10557.08828678117</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="M4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="N4" t="n">
-        <v>10557.08828678131</v>
+        <v>10557.08828678116</v>
       </c>
       <c r="O4" t="n">
         <v>10557.08828678121</v>
@@ -26478,16 +26478,16 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="I5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-951693.5704421201</v>
+        <v>-951693.5704421198</v>
       </c>
       <c r="C6" t="n">
-        <v>377051.1752854726</v>
+        <v>377051.1752854725</v>
       </c>
       <c r="D6" t="n">
-        <v>377051.1752854728</v>
+        <v>377051.1752854724</v>
       </c>
       <c r="E6" t="n">
-        <v>127563.1606106032</v>
+        <v>127875.8019395254</v>
       </c>
       <c r="F6" t="n">
-        <v>452975.6224179592</v>
+        <v>453288.2637468805</v>
       </c>
       <c r="G6" t="n">
-        <v>452975.6224179594</v>
+        <v>453288.2637468802</v>
       </c>
       <c r="H6" t="n">
-        <v>452975.6224179594</v>
+        <v>453288.2637468803</v>
       </c>
       <c r="I6" t="n">
-        <v>452975.6224179593</v>
+        <v>453288.2637468805</v>
       </c>
       <c r="J6" t="n">
-        <v>235444.420020682</v>
+        <v>235757.0613496031</v>
       </c>
       <c r="K6" t="n">
-        <v>452975.6224179592</v>
+        <v>453288.2637468806</v>
       </c>
       <c r="L6" t="n">
-        <v>452975.6224179593</v>
+        <v>453288.2637468805</v>
       </c>
       <c r="M6" t="n">
-        <v>367920.5944824474</v>
+        <v>368233.2358113687</v>
       </c>
       <c r="N6" t="n">
-        <v>452975.6224179592</v>
+        <v>453288.2637468807</v>
       </c>
       <c r="O6" t="n">
-        <v>452975.6224179592</v>
+        <v>453288.2637468802</v>
       </c>
       <c r="P6" t="n">
-        <v>452975.6224179592</v>
+        <v>453288.2637468806</v>
       </c>
     </row>
   </sheetData>
@@ -26789,34 +26789,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26825,10 +26825,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26965,16 +26965,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483761</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>198.2808315333519</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>158.520714960759</v>
       </c>
     </row>
     <row r="3">
@@ -27557,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>16.14213605696639</v>
       </c>
       <c r="T4" t="n">
-        <v>201.4267091368513</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>198.2808315333518</v>
+        <v>198.2808315333513</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -27782,19 +27782,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>68.10750358912711</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27830,10 +27830,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>93.68940318050031</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -27915,10 +27915,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>215.1895819463432</v>
+        <v>75.73292083663569</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>69.12041821276463</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28061,13 +28061,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>118.0986533615246</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28335,7 +28335,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-2.541380246273341e-12</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -30240,7 +30240,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162565</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.307619600775</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420756</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422588</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473075</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643557995</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162565</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.307619600775</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420756</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422588</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473075</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643557995</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162565</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659451</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521102</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.307619600775</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420756</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422588</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473075</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643557995</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>169.9530009943068</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,7 +32341,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32399,31 +32399,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
         <v>0.1345549672467222</v>
@@ -32463,40 +32463,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
@@ -32505,7 +32505,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32554,19 +32554,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558004</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,7 +32578,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796262</v>
@@ -32645,7 +32645,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32706,7 +32706,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33885,40 +33885,40 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043693</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
         <v>125.3175546292901</v>
@@ -33927,7 +33927,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33976,19 +33976,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558009</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,7 +34000,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796262</v>
@@ -34067,7 +34067,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
@@ -34079,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34140,7 +34140,7 @@
         <v>867.8464071162564</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175656</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159429</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135342</v>
       </c>
       <c r="I44" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663284</v>
@@ -34383,7 +34383,7 @@
         <v>981.2715114159429</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460007</v>
       </c>
       <c r="P44" t="n">
         <v>790.8204499236509</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34871,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367773</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243165</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774958</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678998</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674334</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238456</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113551</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367773</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243165</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774958</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678998</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674334</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238456</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113551</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,25 +35804,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
         <v>120.4022572998984</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367773</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902953</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243165</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774958</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678998</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674334</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238456</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113551</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,25 +36041,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
         <v>120.4022572998984</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902405</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>256.165419911356</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
         <v>264.332588409635</v>
@@ -36290,7 +36290,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060455</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -37089,7 +37089,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902405</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902372</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113564</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
         <v>264.332588409635</v>
@@ -37712,7 +37712,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
         <v>373.2618997060455</v>
@@ -37788,7 +37788,7 @@
         <v>632.0799921462692</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902929</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N41" t="n">
         <v>751.858447819352</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J44" t="n">
         <v>285.7087110396421</v>
@@ -38031,7 +38031,7 @@
         <v>751.858447819352</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243139</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683813</v>
